--- a/larson(overall_raw_ma).xlsx
+++ b/larson(overall_raw_ma).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Thesis\githubthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847A484-3CF5-4E9A-AC88-BBABAAAFEF84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C0F4BF-4798-4452-9188-EAD989EFE3F6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" xr2:uid="{82994317-DEF0-47CC-A78E-074601CFA1DC}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F3" sqref="F3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,8 +777,8 @@
       <c r="C3" s="1">
         <v>2010</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -917,8 +917,8 @@
       <c r="C7" s="1">
         <v>2010</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
